--- a/biology/Botanique/Thismiaceae/Thismiaceae.xlsx
+++ b/biology/Botanique/Thismiaceae/Thismiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Thismiaceae sont une famille de plantes de l’ordre des Dioscoreales.
 </t>
@@ -511,15 +523,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (29 décembre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (29 décembre 2017) :
 genre Afrothismia (Engl.) Schltr.
 genre Haplothismia Airy Shaw
 genre Oxygyne Schltr.
 genre Thismia Griff.
 genre Tiputinia P.E. Berry &amp; C.L. Woodw.
-Selon GRIN            (29 décembre 2017)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon GRIN            (29 décembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 genre Afrothismia (Engl.) Schltr.
 genre Bagnisia Becc.
 genre Geomitra Becc.
@@ -533,7 +547,7 @@
 genre Tiputinia P. E. Berry &amp; C. L. Woodw.
 genre Triscyphus Taub.
 genre Triurocodon Schltr.
-Selon ITIS      (29 décembre 2017)[4] et NCBI  (29 décembre 2017)[5] :
+Selon ITIS      (29 décembre 2017) et NCBI  (29 décembre 2017) :
 genre Thismia Griff., 1839</t>
         </is>
       </c>
